--- a/Test.xlsx
+++ b/Test.xlsx
@@ -6,24 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Выгрузка" r:id="rId3" sheetId="1"/>
+    <sheet name="Отчет за 12.2021г." r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ФИО читателя</t>
   </si>
   <si>
     <t>Email читателя</t>
-  </si>
-  <si>
-    <t>Логин читателя</t>
-  </si>
-  <si>
-    <t>Пароль читателя</t>
   </si>
   <si>
     <t>Название приобретенной книги</t>
@@ -36,6 +30,18 @@
   </si>
   <si>
     <t>Количество просроченных дней</t>
+  </si>
+  <si>
+    <t>Александров Леонид Эмирович</t>
+  </si>
+  <si>
+    <t>ccccc@c.com</t>
+  </si>
+  <si>
+    <t>Левиафан</t>
+  </si>
+  <si>
+    <t>Томас Гоббс</t>
   </si>
 </sst>
 </file>
@@ -80,11 +86,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.66796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.58203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="31.11328125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -105,17 +119,28 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>1998.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A4"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>